--- a/counts/ALS Mice/new filtering/tg2-tg3/moto/KEGG.xlsx
+++ b/counts/ALS Mice/new filtering/tg2-tg3/moto/KEGG.xlsx
@@ -87,22 +87,22 @@
     <t>1/15</t>
   </si>
   <si>
-    <t>183/8116</t>
-  </si>
-  <si>
-    <t>89/8116</t>
-  </si>
-  <si>
-    <t>91/8116</t>
-  </si>
-  <si>
-    <t>97/8116</t>
-  </si>
-  <si>
-    <t>132/8116</t>
-  </si>
-  <si>
-    <t>19/8116</t>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>91/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>19/8092</t>
   </si>
   <si>
     <t>12608/15405/15395</t>
@@ -159,19 +159,19 @@
     <t>2/22</t>
   </si>
   <si>
-    <t>113/8116</t>
-  </si>
-  <si>
-    <t>45/8116</t>
-  </si>
-  <si>
-    <t>48/8116</t>
-  </si>
-  <si>
-    <t>68/8116</t>
-  </si>
-  <si>
-    <t>76/8116</t>
+    <t>113/8092</t>
+  </si>
+  <si>
+    <t>45/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>68/8092</t>
+  </si>
+  <si>
+    <t>76/8092</t>
   </si>
   <si>
     <t>20508/211480/16515/12647</t>
@@ -281,13 +281,13 @@
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004201504168369676</v>
+        <v>0.00423648040877613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.11402996216050196</v>
+        <v>0.11467299196481413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09531916341589947</v>
+        <v>0.09585668058978272</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
@@ -313,13 +313,13 @@
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.011379621566878446</v>
+        <v>0.011444080714858492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11402996216050196</v>
+        <v>0.11467299196481413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09531916341589947</v>
+        <v>0.09585668058978272</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -345,13 +345,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011874474429774712</v>
+        <v>0.011941661490828445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11402996216050196</v>
+        <v>0.11467299196481413</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09531916341589947</v>
+        <v>0.09585668058978272</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
@@ -377,13 +377,13 @@
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>0.013415289665941407</v>
+        <v>0.013490940231154604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11402996216050196</v>
+        <v>0.11467299196481413</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09531916341589947</v>
+        <v>0.09585668058978272</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
@@ -409,13 +409,13 @@
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02400160611352853</v>
+        <v>0.02413430314954456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.163210921571994</v>
+        <v>0.164113261416903</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1364301821190043</v>
+        <v>0.13718446000793752</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
@@ -441,13 +441,13 @@
         <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03457550520997654</v>
+        <v>0.03467645956234322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.19592786285653374</v>
+        <v>0.19649993751994493</v>
       </c>
       <c r="H7" t="n">
-        <v>0.16377870888936258</v>
+        <v>0.1642569137163626</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
@@ -516,13 +516,13 @@
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1475843104721743E-4</v>
+        <v>2.1719275392405446E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.010737921552360872</v>
+        <v>0.01064244494227867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009720644773716158</v>
+        <v>0.009602205962958197</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -548,13 +548,13 @@
         <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006471555026334343</v>
+        <v>0.00650864216383734</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12229242660537475</v>
+        <v>0.12053164665528637</v>
       </c>
       <c r="H3" t="n">
-        <v>0.11070682829539187</v>
+        <v>0.1087503578844689</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -580,13 +580,13 @@
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0073375455963224845</v>
+        <v>0.0073794885707318195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12229242660537475</v>
+        <v>0.12053164665528637</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11070682829539187</v>
+        <v>0.1087503578844689</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -612,13 +612,13 @@
         <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>0.014341799619919665</v>
+        <v>0.01442239057750936</v>
       </c>
       <c r="G5" t="n">
-        <v>0.17710378640596092</v>
+        <v>0.17453030391731647</v>
       </c>
       <c r="H5" t="n">
-        <v>0.16032553295697516</v>
+        <v>0.1574709509028419</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -644,13 +644,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.017710378640596092</v>
+        <v>0.017809214685440455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.17710378640596092</v>
+        <v>0.17453030391731647</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16032553295697516</v>
+        <v>0.1574709509028419</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
